--- a/data/hotels_by_city/Dallas/Dallas_shard_627.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_627.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,462 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r571905037-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>55771</t>
+  </si>
+  <si>
+    <t>1603881</t>
+  </si>
+  <si>
+    <t>571905037</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Clean room, good bed, old building.</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights and Ill easy this, the place is far from perfect.  That begging said, my son and I slept great.  The building is old and could use some love.  Especially the stairwell, it could use a good cleaning and some paint.  There is no elevator at this property so the stairs get plenty of use.  The staff was nice but not friendly.  We didn't eat the breakfast so I can't comment I that.  The parking lot is very well lit and the location is convenient if you're inn town for a basketball or volleyball event at the Fieldhouse.Pros: Flat screen tv, quality fridge in the room, a/c worked great, clean room, comfy bed, great price.Cons: old building, needs some renovation,  no elevator.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights and Ill easy this, the place is far from perfect.  That begging said, my son and I slept great.  The building is old and could use some love.  Especially the stairwell, it could use a good cleaning and some paint.  There is no elevator at this property so the stairs get plenty of use.  The staff was nice but not friendly.  We didn't eat the breakfast so I can't comment I that.  The parking lot is very well lit and the location is convenient if you're inn town for a basketball or volleyball event at the Fieldhouse.Pros: Flat screen tv, quality fridge in the room, a/c worked great, clean room, comfy bed, great price.Cons: old building, needs some renovation,  no elevator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r536070077-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>536070077</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Meagan at the front desk was outstanding, but my husband gave the hotel a new name, the Non-quality Inn!</t>
+  </si>
+  <si>
+    <t>I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when...I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when I asked (took awhile, so they must have had to hunt for some). When I used the phone to call the front desk, it smelled of smoke, so probably hadn't been wiped down in awhile. Proper cleaning hadn't been done; i.e., there were crumbs in the sides of the desk chair, the bottom of the tub looked dirty, the carpet had crumbs, I had to wipe down the refrigerator, the drawers, etc before I would put anything in them, the sofa had one bare arm, not what I would think would meet the standards of a Choice Hotel--aren't there some guidelines? Fortunately, I had brought my own hair dryer (the one in the bathroom didn't work). Since I'm gluten-free, I figured they wouldn't have many options for me for breakfast, so I told my husband I'd catch some extra sleep; he decided to give it a try, but he wasn't impressed--they ran out of coffee cups, and after a 20 minute wait, they finally came in with one for him; the breakfast area was messy, but he did give it a try again the next morning--disappointed again, coffee came out like water, again, messy. Next morning he decided to go to Denny's, guess the "free breakfast at the Non-quality Inn wasn't worth it. Overall, our stay wasn't as bad as I had expected after reading some of the other reviews. Meagan and the other front-desk staff were very pleasant and helpful (as much as possible). Our room was quiet, and our bed was very comfortable (in fact, I missed the bed when I got home, guess it's time for a new mattress!). I was told that the hotel is under new management and it may take awhile to take care of the long list of issues. By the way, the pool looked nice, but it was closed; you couldn't even sit by it (all the gates were locked), I did manage to find a lawn chair on the grass outside the pool gate to read awhile on a sunny afternoon, but I wonder if they advertise a pool, but it is always "Closed".MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when...I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when I asked (took awhile, so they must have had to hunt for some). When I used the phone to call the front desk, it smelled of smoke, so probably hadn't been wiped down in awhile. Proper cleaning hadn't been done; i.e., there were crumbs in the sides of the desk chair, the bottom of the tub looked dirty, the carpet had crumbs, I had to wipe down the refrigerator, the drawers, etc before I would put anything in them, the sofa had one bare arm, not what I would think would meet the standards of a Choice Hotel--aren't there some guidelines? Fortunately, I had brought my own hair dryer (the one in the bathroom didn't work). Since I'm gluten-free, I figured they wouldn't have many options for me for breakfast, so I told my husband I'd catch some extra sleep; he decided to give it a try, but he wasn't impressed--they ran out of coffee cups, and after a 20 minute wait, they finally came in with one for him; the breakfast area was messy, but he did give it a try again the next morning--disappointed again, coffee came out like water, again, messy. Next morning he decided to go to Denny's, guess the "free breakfast at the Non-quality Inn wasn't worth it. Overall, our stay wasn't as bad as I had expected after reading some of the other reviews. Meagan and the other front-desk staff were very pleasant and helpful (as much as possible). Our room was quiet, and our bed was very comfortable (in fact, I missed the bed when I got home, guess it's time for a new mattress!). I was told that the hotel is under new management and it may take awhile to take care of the long list of issues. By the way, the pool looked nice, but it was closed; you couldn't even sit by it (all the gates were locked), I did manage to find a lawn chair on the grass outside the pool gate to read awhile on a sunny afternoon, but I wonder if they advertise a pool, but it is always "Closed".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r521228552-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>521228552</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Cleaning and Management Makeover Badly Needed</t>
+  </si>
+  <si>
+    <t>My family checked into the Duncanville Quality Inn on August 16, 2017.  The first room assigned us smelled like mold and mildew.  The second room assigned us smelled like smoke.  The third room assigned us was dirty all over (easily visible when we walked into the room).  At this point I began to question if they had any acceptable rooms.  I called Choice Hotels/Quality Inn and asked for their help and was told since it was after 5 pm, no help was available.  So we went back to the front desk and requested a fourth room.  This room was better than the previous 3, but still had some issues that the hotel had a housekeeper clean for us.  The young lady at the desk hadn't been trained to handle all the problems that were coming her way (there was another family on their 4th room at the same time) and was on the verge of breaking down.  She could not reach the owner or manager by phone.  We were finally fine, after about a 2 hour process; but I cannot say that our stay was restful.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>My family checked into the Duncanville Quality Inn on August 16, 2017.  The first room assigned us smelled like mold and mildew.  The second room assigned us smelled like smoke.  The third room assigned us was dirty all over (easily visible when we walked into the room).  At this point I began to question if they had any acceptable rooms.  I called Choice Hotels/Quality Inn and asked for their help and was told since it was after 5 pm, no help was available.  So we went back to the front desk and requested a fourth room.  This room was better than the previous 3, but still had some issues that the hotel had a housekeeper clean for us.  The young lady at the desk hadn't been trained to handle all the problems that were coming her way (there was another family on their 4th room at the same time) and was on the verge of breaking down.  She could not reach the owner or manager by phone.  We were finally fine, after about a 2 hour process; but I cannot say that our stay was restful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r504462398-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>504462398</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> No thank you</t>
+  </si>
+  <si>
+    <t>1. Customer service, terrible- stood there waiting to be helped. As I watched them speak to other partrons rudely.2. No elevator- they gave us a room on the 2nd floor, my mom can't do steps.3. Not clean- the overall appearance, hallways, stairwell and room.4. Room- the toilet would run, we called to have someone look at it, they never came. The smoke detector was covered up. The handle was broken off the dresser door, the dresser was dirty, the tv had a bad reception (static). Had a fridge but no microwave.5. In all...we didn't feel safe, we couldn't stay here any longer, -We called and spoke to the manager. Went back to the front desk where again we waited to be served. The clerks kept talking to each other rather than us. The manager came out and after an additonal 4 mins, she said we were free to go. No signing off on paper, but my card was reimbursed.SAVE YOUR MONEY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>1. Customer service, terrible- stood there waiting to be helped. As I watched them speak to other partrons rudely.2. No elevator- they gave us a room on the 2nd floor, my mom can't do steps.3. Not clean- the overall appearance, hallways, stairwell and room.4. Room- the toilet would run, we called to have someone look at it, they never came. The smoke detector was covered up. The handle was broken off the dresser door, the dresser was dirty, the tv had a bad reception (static). Had a fridge but no microwave.5. In all...we didn't feel safe, we couldn't stay here any longer, -We called and spoke to the manager. Went back to the front desk where again we waited to be served. The clerks kept talking to each other rather than us. The manager came out and after an additonal 4 mins, she said we were free to go. No signing off on paper, but my card was reimbursed.SAVE YOUR MONEY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r498074787-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>498074787</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Three words of advice: Don't stay here !!!!!</t>
+  </si>
+  <si>
+    <t>My husband and I checked into this nightmare last night, and fortunately for us, it was for one night only. We should have been tipped off when the unpleasant woman at the desk handed him a bottle of water and a bag of chips and said: "I have to give you these." 
+Down the hall we headed toward our room, noting along the way the shabbiness of the place. Once in our room, we noted that the room had a foul odor, the arms on the sofa were completely worn down, and the toilet paper holder was broken. Soon there were some people in the adjoining parking lot who were carrying on a loud conversation, which we could hear completely. Once we got to sleep, we were awakened by the sound of someone trying to enter our room. Through the peephole, I could see that a couple were trying to open our door. I have no way of knowing if it was their mistake or that of the hotel. I only know it shook us out of our sleep. 
+We are used to the complimentary breakfasts offered by Choice Hotels, but this place offered very sparse snd unpleasant selections, prompting us to visit a local restaurant for s real breakfast. 
+Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over...My husband and I checked into this nightmare last night, and fortunately for us, it was for one night only. We should have been tipped off when the unpleasant woman at the desk handed him a bottle of water and a bag of chips and said: "I have to give you these." Down the hall we headed toward our room, noting along the way the shabbiness of the place. Once in our room, we noted that the room had a foul odor, the arms on the sofa were completely worn down, and the toilet paper holder was broken. Soon there were some people in the adjoining parking lot who were carrying on a loud conversation, which we could hear completely. Once we got to sleep, we were awakened by the sound of someone trying to enter our room. Through the peephole, I could see that a couple were trying to open our door. I have no way of knowing if it was their mistake or that of the hotel. I only know it shook us out of our sleep. We are used to the complimentary breakfasts offered by Choice Hotels, but this place offered very sparse snd unpleasant selections, prompting us to visit a local restaurant for s real breakfast. Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over into the floor. We were so happy to escape this hell hole!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My husband and I checked into this nightmare last night, and fortunately for us, it was for one night only. We should have been tipped off when the unpleasant woman at the desk handed him a bottle of water and a bag of chips and said: "I have to give you these." 
+Down the hall we headed toward our room, noting along the way the shabbiness of the place. Once in our room, we noted that the room had a foul odor, the arms on the sofa were completely worn down, and the toilet paper holder was broken. Soon there were some people in the adjoining parking lot who were carrying on a loud conversation, which we could hear completely. Once we got to sleep, we were awakened by the sound of someone trying to enter our room. Through the peephole, I could see that a couple were trying to open our door. I have no way of knowing if it was their mistake or that of the hotel. I only know it shook us out of our sleep. 
+We are used to the complimentary breakfasts offered by Choice Hotels, but this place offered very sparse snd unpleasant selections, prompting us to visit a local restaurant for s real breakfast. 
+Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over...My husband and I checked into this nightmare last night, and fortunately for us, it was for one night only. We should have been tipped off when the unpleasant woman at the desk handed him a bottle of water and a bag of chips and said: "I have to give you these." Down the hall we headed toward our room, noting along the way the shabbiness of the place. Once in our room, we noted that the room had a foul odor, the arms on the sofa were completely worn down, and the toilet paper holder was broken. Soon there were some people in the adjoining parking lot who were carrying on a loud conversation, which we could hear completely. Once we got to sleep, we were awakened by the sound of someone trying to enter our room. Through the peephole, I could see that a couple were trying to open our door. I have no way of knowing if it was their mistake or that of the hotel. I only know it shook us out of our sleep. We are used to the complimentary breakfasts offered by Choice Hotels, but this place offered very sparse snd unpleasant selections, prompting us to visit a local restaurant for s real breakfast. Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over into the floor. We were so happy to escape this hell hole!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r496380808-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>496380808</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Worse hotel and dangerous</t>
+  </si>
+  <si>
+    <t>One of the worst hotel I've ever stayed at and I travel a lot.  1. Room key didn't work every time I left the hotel as well as during check in. 2. Tried to call front desk with cell phone but no one ever answered hand to walk back down ( no elevator). 3. Third day house keeping left cleaning products in the room. 4. Fourth day housekeeping only did have bathroom and beds not made or trash not taken. 5. Fifth day no housekeeping at all after complaining to staff that we did get complete housekeeping the previous day. 6. We also had the fire alarm going off for about 20 minutes with no public announcement n of course no one answered the phone. Other customers alerted us of the problem  and the all clear.  This was awful and because of all the events in the area no other vacancies available. Was also told I would have a microwave and refrigerator in or room and shopped online before our arrival accordingly only to find I didn't, causing us to loose money because our food went bad.  Bad bad bad hottMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>One of the worst hotel I've ever stayed at and I travel a lot.  1. Room key didn't work every time I left the hotel as well as during check in. 2. Tried to call front desk with cell phone but no one ever answered hand to walk back down ( no elevator). 3. Third day house keeping left cleaning products in the room. 4. Fourth day housekeeping only did have bathroom and beds not made or trash not taken. 5. Fifth day no housekeeping at all after complaining to staff that we did get complete housekeeping the previous day. 6. We also had the fire alarm going off for about 20 minutes with no public announcement n of course no one answered the phone. Other customers alerted us of the problem  and the all clear.  This was awful and because of all the events in the area no other vacancies available. Was also told I would have a microwave and refrigerator in or room and shopped online before our arrival accordingly only to find I didn't, causing us to loose money because our food went bad.  Bad bad bad hottMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r462551041-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>462551041</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>A real suprise</t>
+  </si>
+  <si>
+    <t>We stayed here last Sunday for 1 night and have to say after checking in we were surprised. Our rooms were in the back of the hotel so we used the back entrance to our room, which was also on the 2nd floor.We were immediately wondering if we had made a mistake. The lobby and front area of the hotel looked very nice but going in the back way not so much. By the way that back door does need to be fixed, it doesn't lock.We got to our room and nothing wrong. Everything was clean and fresh. Cozy bed and pillows.We had a problem with the shower later on and were moved right away into another room. Breakfast was normal for a hotel, eggs, sausage and the likes but well taken care of and the people at the desk very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We stayed here last Sunday for 1 night and have to say after checking in we were surprised. Our rooms were in the back of the hotel so we used the back entrance to our room, which was also on the 2nd floor.We were immediately wondering if we had made a mistake. The lobby and front area of the hotel looked very nice but going in the back way not so much. By the way that back door does need to be fixed, it doesn't lock.We got to our room and nothing wrong. Everything was clean and fresh. Cozy bed and pillows.We had a problem with the shower later on and were moved right away into another room. Breakfast was normal for a hotel, eggs, sausage and the likes but well taken care of and the people at the desk very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r455771257-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>455771257</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and Comfortable </t>
+  </si>
+  <si>
+    <t>This property is a bit old on the inside, but every effort has been made to keep it clean and pleasing to the eye. The beds are comfortable, the Internet good, and nice TV. I didn't have the complimentary breakfast because I choose to eat at the Denny's which is a block away.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r430951078-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>430951078</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get what you pay for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here two nights.  It was close to my meeting location and offered the best price.  Nothing special.   The free breakfast was skimpy but I usually don't eat it.   Staff was friendly.  Clean enough.   So, in the end you get what you pay for. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r416608277-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>416608277</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Old and run down</t>
+  </si>
+  <si>
+    <t>Not a pleasant place to stay, it looked as if people were living in the hotel.  Nothing worked in the fitness center, not even any air.  Didn't feel that clean.  Would not recommend it.  I did not feel safe.  Wifi did not work, manager rather rude.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r410825508-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>410825508</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>BEWARE OF GIVING CREDIT CARD INFORMATION!</t>
+  </si>
+  <si>
+    <t>I checked into this hotel using Hotels.com for the first night.  Everything went well.  I do have to say the hotel does need updating.  Then on the second night, my business partner attempted to book again using Hotels.com and it would not work, Hotels.com was down.  So I booked the hotel under my Choice Privileges account for a lower rate.  I then went to the front desk to get a credit card authorization to send to my business partner so she could pay for my stay.  When we finally got the credit card authorization completed, they noticed the Hotels.com reservation had came through, so we cancelled the one using the choicehotels.com website.  The next day my business partner checked her bank account and found two charge for Sonic Drive-In totalling $65.00 and another charge that did not go through to an electric company in Texas.  Apparently, someone at the hotel decided to have dinner and try to pay their electric bill with my business partners money.  At this time it has been reported to the Duncaville Police Department and they are investigating the matter, kind of stupid that someone would try to pay their electric bill using a stolen credit card information, it will lead right to the suspect.  Hope the person is caught and they are jailed for a very long time for taking from an elderly disabled person!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I checked into this hotel using Hotels.com for the first night.  Everything went well.  I do have to say the hotel does need updating.  Then on the second night, my business partner attempted to book again using Hotels.com and it would not work, Hotels.com was down.  So I booked the hotel under my Choice Privileges account for a lower rate.  I then went to the front desk to get a credit card authorization to send to my business partner so she could pay for my stay.  When we finally got the credit card authorization completed, they noticed the Hotels.com reservation had came through, so we cancelled the one using the choicehotels.com website.  The next day my business partner checked her bank account and found two charge for Sonic Drive-In totalling $65.00 and another charge that did not go through to an electric company in Texas.  Apparently, someone at the hotel decided to have dinner and try to pay their electric bill with my business partners money.  At this time it has been reported to the Duncaville Police Department and they are investigating the matter, kind of stupid that someone would try to pay their electric bill using a stolen credit card information, it will lead right to the suspect.  Hope the person is caught and they are jailed for a very long time for taking from an elderly disabled person!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r407296093-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>407296093</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>My Family and I checked in quite late after a 10 hour drive. We were exhausted and our first room had a roach and the carpet was torn.The sheets were stained and there were cheetos under the bed. Like seriously how dirty can it be. We asked to switch rooms and our second room had a mushroom growing from the ground and torn wallpaper. It wasn't as bad as the first room but certainly not acceptable. The hallways were humid as well and there were used towels thrown near the garbage. I truly think this place needs to be torned down. I was just a horrible stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r378449942-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>378449942</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Easy Access</t>
+  </si>
+  <si>
+    <t>The easy access is about the only thing good I can say about this location.  The rooms were not clean.  They weren't exactly dirty but just didn't seem fresh and up to date.  I normally have no problem with any of the Quality Inn locations but this one was just not up to par. I had a ground floor room and did not feel comfortable.   Will not stay at this location again.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r356203790-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>356203790</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY, REALLY</t>
+  </si>
+  <si>
+    <t>I got 2 rooms for 4 employees for an overnight stay.First the rooms were not ready at check in time, 30 minutes late. OK, things sometimes happen.The first room was still not cleaned, the front desk assigned another room, when we got to this room it was still occupied, got another room it also was not clean, finally got assigned back to the original room. It had been cleaned, but the bed linens and comforter when stained with what appeared to be blood.The second room that we paid for had feces smeared on the wall, the front desk assigned another room, but this one had beds that appeared to have been slept on and the bathroom floor was covered with pubic hair.I did get a refund with management apologies, and we left as fast as we could.I know, I know this sounds ridiculous, but this is the gods truth.Don't stop, don't even slow down, just keep going PLEASE.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I got 2 rooms for 4 employees for an overnight stay.First the rooms were not ready at check in time, 30 minutes late. OK, things sometimes happen.The first room was still not cleaned, the front desk assigned another room, when we got to this room it was still occupied, got another room it also was not clean, finally got assigned back to the original room. It had been cleaned, but the bed linens and comforter when stained with what appeared to be blood.The second room that we paid for had feces smeared on the wall, the front desk assigned another room, but this one had beds that appeared to have been slept on and the bathroom floor was covered with pubic hair.I did get a refund with management apologies, and we left as fast as we could.I know, I know this sounds ridiculous, but this is the gods truth.Don't stop, don't even slow down, just keep going PLEASE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r297056370-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>297056370</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>I stayed here with my kids as I was on my way to OK to visit some friends. Staff was very corteous and helpful. We walked in the middle of the night and Aaron the front desk could'nt be more friendly and helpful finding us a nice room for us to rest. We ended up extendinding our stay for one more day. Next day as i walked down the hall I find I saw the front desk coming out of the room with a lady. I asked the front desk and she told me that Mr. Aaron lives at the property with his wife as he is the one the managers of the place and enforce the security of the place. It is nice to know that you are staying in a place where someone is there on call to deal with any situatuon that may arise at all times. We will stay in OK until the last week of August, when school starts. We will definetly stop at the Haven Hotel for resting on our way back... By the way Miss Belinda the morning front desk is also awesome. Very friendly and helpfull.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I stayed here with my kids as I was on my way to OK to visit some friends. Staff was very corteous and helpful. We walked in the middle of the night and Aaron the front desk could'nt be more friendly and helpful finding us a nice room for us to rest. We ended up extendinding our stay for one more day. Next day as i walked down the hall I find I saw the front desk coming out of the room with a lady. I asked the front desk and she told me that Mr. Aaron lives at the property with his wife as he is the one the managers of the place and enforce the security of the place. It is nice to know that you are staying in a place where someone is there on call to deal with any situatuon that may arise at all times. We will stay in OK until the last week of August, when school starts. We will definetly stop at the Haven Hotel for resting on our way back... By the way Miss Belinda the morning front desk is also awesome. Very friendly and helpfull.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r274766558-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>274766558</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>nice and clean!!</t>
+  </si>
+  <si>
+    <t>Came to Duncanville area and decided to stay here bc of the great deal I got, the hotel inside is fresh, clean and brand new! I will be coming back in 2 months and will stay here. I was scared bc of the past reviews but this is a diff hotel .</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r17610560-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>17610560</t>
+  </si>
+  <si>
+    <t>07/07/2008</t>
+  </si>
+  <si>
+    <t>Needs a lot of work</t>
+  </si>
+  <si>
+    <t>My aunt reserved a room for me to stay while I was in town for a wedding. When I drove up to the hotel. My initial thoughts was no way.  The hotel is run down. It looks like they are remodeling however they need to close down and open up after they are finish. Once I saw the rooms I decided to stay somewhere else. I split my trip between the LaQuinta Inn in DeSoto and Hilton Garden Inn in Duncanville.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r14971101-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>14971101</t>
+  </si>
+  <si>
+    <t>04/11/2008</t>
+  </si>
+  <si>
+    <t>New Name - Worse Condition</t>
+  </si>
+  <si>
+    <t>This Hotel is no longer a Ramada but rather now called the Best West Inn - it was booked by a friend of mine who thought it was a Best Western - do not be fooled - 
+The front desk was less than helpful - and first put me in a non- smoking room that was filled with smoke odors - I complained and they changed my room - this room had plenty of problems including black ants in the bed, paint peeling from the walls and ceiling, and when I took a shower, huge globs of hair began to come into the tub out of the drain - and the tub did not drain either 
+The carpet was dirty and frayed - the room at two doors - one leading to an outside courtyard - the door was tough to secure and I placed furniture in front of it at night for protection - the weather strip under the door was missing, so bugs were coming in the room.  The pillow cases had stains on them - it just was not a pleasant environment - on two different occasions, people tried to get into my room with keys that they had received from the front desk - so they obviously did not pay much attention to how they booked the rooms or who was already in them.
+The Internet service costs 35 cents a minute and $1.00 a page...This Hotel is no longer a Ramada but rather now called the Best West Inn - it was booked by a friend of mine who thought it was a Best Western - do not be fooled - The front desk was less than helpful - and first put me in a non- smoking room that was filled with smoke odors - I complained and they changed my room - this room had plenty of problems including black ants in the bed, paint peeling from the walls and ceiling, and when I took a shower, huge globs of hair began to come into the tub out of the drain - and the tub did not drain either The carpet was dirty and frayed - the room at two doors - one leading to an outside courtyard - the door was tough to secure and I placed furniture in front of it at night for protection - the weather strip under the door was missing, so bugs were coming in the room.  The pillow cases had stains on them - it just was not a pleasant environment - on two different occasions, people tried to get into my room with keys that they had received from the front desk - so they obviously did not pay much attention to how they booked the rooms or who was already in them.The Internet service costs 35 cents a minute and $1.00 a page - so you can imagine that just after a few minutes on line that it would be very expensive - and only one of the two computers was actually workingWhen I checked in, I found that the room did not have enough hangers so I went to the front desk - but was told that I could not get any more because everyone in housekeeping had gone home - so I walked down the hall - saw lots of maids, followed them to housekeeping and got more hangers - again - the front desk was just not helpful at all. Only one small bar of soap was given in the bathroom - so you had to remember to take it with you into the showerThe pool was closed even though it was very warm - and the grass was not mowed well, nor were the trees trimmed well - in fact they had dead branches hanging down - there was a very loud and noisy wedding that night that lasted well past 2 a.m. along with a teen party of some kind - the next morning there was trash all over the foyer and lobby - someone was just starting to clean it up at 10 a.m. - I mean there was a lot of dirt and debris from these two parties -  and this was well after it was over and people are coming and goingThe restaurant was a Spanish Restaurant with a limited menu - I did not see anyone eathing in there at any meal times - after two days I checked out and went to the real Best Western and I would encourage anyone considering staying at this hotel to do the same before they actually check in - because the Best West Inn certainly was far from the BestMoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel is no longer a Ramada but rather now called the Best West Inn - it was booked by a friend of mine who thought it was a Best Western - do not be fooled - 
+The front desk was less than helpful - and first put me in a non- smoking room that was filled with smoke odors - I complained and they changed my room - this room had plenty of problems including black ants in the bed, paint peeling from the walls and ceiling, and when I took a shower, huge globs of hair began to come into the tub out of the drain - and the tub did not drain either 
+The carpet was dirty and frayed - the room at two doors - one leading to an outside courtyard - the door was tough to secure and I placed furniture in front of it at night for protection - the weather strip under the door was missing, so bugs were coming in the room.  The pillow cases had stains on them - it just was not a pleasant environment - on two different occasions, people tried to get into my room with keys that they had received from the front desk - so they obviously did not pay much attention to how they booked the rooms or who was already in them.
+The Internet service costs 35 cents a minute and $1.00 a page...This Hotel is no longer a Ramada but rather now called the Best West Inn - it was booked by a friend of mine who thought it was a Best Western - do not be fooled - The front desk was less than helpful - and first put me in a non- smoking room that was filled with smoke odors - I complained and they changed my room - this room had plenty of problems including black ants in the bed, paint peeling from the walls and ceiling, and when I took a shower, huge globs of hair began to come into the tub out of the drain - and the tub did not drain either The carpet was dirty and frayed - the room at two doors - one leading to an outside courtyard - the door was tough to secure and I placed furniture in front of it at night for protection - the weather strip under the door was missing, so bugs were coming in the room.  The pillow cases had stains on them - it just was not a pleasant environment - on two different occasions, people tried to get into my room with keys that they had received from the front desk - so they obviously did not pay much attention to how they booked the rooms or who was already in them.The Internet service costs 35 cents a minute and $1.00 a page - so you can imagine that just after a few minutes on line that it would be very expensive - and only one of the two computers was actually workingWhen I checked in, I found that the room did not have enough hangers so I went to the front desk - but was told that I could not get any more because everyone in housekeeping had gone home - so I walked down the hall - saw lots of maids, followed them to housekeeping and got more hangers - again - the front desk was just not helpful at all. Only one small bar of soap was given in the bathroom - so you had to remember to take it with you into the showerThe pool was closed even though it was very warm - and the grass was not mowed well, nor were the trees trimmed well - in fact they had dead branches hanging down - there was a very loud and noisy wedding that night that lasted well past 2 a.m. along with a teen party of some kind - the next morning there was trash all over the foyer and lobby - someone was just starting to clean it up at 10 a.m. - I mean there was a lot of dirt and debris from these two parties -  and this was well after it was over and people are coming and goingThe restaurant was a Spanish Restaurant with a limited menu - I did not see anyone eathing in there at any meal times - after two days I checked out and went to the real Best Western and I would encourage anyone considering staying at this hotel to do the same before they actually check in - because the Best West Inn certainly was far from the BestMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r8240593-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>8240593</t>
+  </si>
+  <si>
+    <t>07/26/2007</t>
+  </si>
+  <si>
+    <t>Want a nice room? Go to the Hilton.</t>
+  </si>
+  <si>
+    <t>After a delayed arrival into DFW, drove to Duncanville, arriving at the Ramada on Camp Wisdom about 2 a.m. on a Sunday morning.
+The surly desk clerk seemed to none too pleased to see me but after some difficulty managed to get me a room key.
+The room, a "poolside" room had an overpowerind odor of mildew and, in fact, the walls and floors were covered with mold.  The airconditioner from the room above was spewing humidity runoff into this room and the floor -- and carpet -- were sopping wet.
+When I dragged my luggage and myself back to the front desk to ask for a habitable room, the now surlier desk clerk informed me that this was an older property, all rooms were like the one she had assigned me and that , if I wanted a nice room, I should "go to the Hilton."
+She actually refused to even consider changing my room assignment until I made it clear I was not going back to the moldy one.
+After some back and forth, I managed to get her to give me a different room on the second floor.  This one did not smell of mold and was not flooded, but I did notice a number of bugs go running when I turned the lights on.
+Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and...After a delayed arrival into DFW, drove to Duncanville, arriving at the Ramada on Camp Wisdom about 2 a.m. on a Sunday morning.The surly desk clerk seemed to none too pleased to see me but after some difficulty managed to get me a room key.The room, a "poolside" room had an overpowerind odor of mildew and, in fact, the walls and floors were covered with mold.  The airconditioner from the room above was spewing humidity runoff into this room and the floor -- and carpet -- were sopping wet.When I dragged my luggage and myself back to the front desk to ask for a habitable room, the now surlier desk clerk informed me that this was an older property, all rooms were like the one she had assigned me and that , if I wanted a nice room, I should "go to the Hilton."She actually refused to even consider changing my room assignment until I made it clear I was not going back to the moldy one.After some back and forth, I managed to get her to give me a different room on the second floor.  This one did not smell of mold and was not flooded, but I did notice a number of bugs go running when I turned the lights on.Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and checked into the nearby and brand new Hilton, which was fabulous!Not sure what hotel my fellow raters were evaluating but doesn't seem possible it is this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>After a delayed arrival into DFW, drove to Duncanville, arriving at the Ramada on Camp Wisdom about 2 a.m. on a Sunday morning.
+The surly desk clerk seemed to none too pleased to see me but after some difficulty managed to get me a room key.
+The room, a "poolside" room had an overpowerind odor of mildew and, in fact, the walls and floors were covered with mold.  The airconditioner from the room above was spewing humidity runoff into this room and the floor -- and carpet -- were sopping wet.
+When I dragged my luggage and myself back to the front desk to ask for a habitable room, the now surlier desk clerk informed me that this was an older property, all rooms were like the one she had assigned me and that , if I wanted a nice room, I should "go to the Hilton."
+She actually refused to even consider changing my room assignment until I made it clear I was not going back to the moldy one.
+After some back and forth, I managed to get her to give me a different room on the second floor.  This one did not smell of mold and was not flooded, but I did notice a number of bugs go running when I turned the lights on.
+Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and...After a delayed arrival into DFW, drove to Duncanville, arriving at the Ramada on Camp Wisdom about 2 a.m. on a Sunday morning.The surly desk clerk seemed to none too pleased to see me but after some difficulty managed to get me a room key.The room, a "poolside" room had an overpowerind odor of mildew and, in fact, the walls and floors were covered with mold.  The airconditioner from the room above was spewing humidity runoff into this room and the floor -- and carpet -- were sopping wet.When I dragged my luggage and myself back to the front desk to ask for a habitable room, the now surlier desk clerk informed me that this was an older property, all rooms were like the one she had assigned me and that , if I wanted a nice room, I should "go to the Hilton."She actually refused to even consider changing my room assignment until I made it clear I was not going back to the moldy one.After some back and forth, I managed to get her to give me a different room on the second floor.  This one did not smell of mold and was not flooded, but I did notice a number of bugs go running when I turned the lights on.Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and checked into the nearby and brand new Hilton, which was fabulous!Not sure what hotel my fellow raters were evaluating but doesn't seem possible it is this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r6534821-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>6534821</t>
+  </si>
+  <si>
+    <t>12/31/2006</t>
+  </si>
+  <si>
+    <t>Not a bad place</t>
+  </si>
+  <si>
+    <t>My wife and I just returned from New Years weekend in Texas. We stayed at the Ramada and were quite pleased with the place. The front desk clerk was friendly and helpful at both check in and check out. The room was large and clean, ours had one king bed and a small sofa and a small refrigerator, but no microwave. Everything in the room worked including the free wireless internet access! Our particular room was on an outside wall, lower level, so we had two entrance doors, one to the parking area and one to the interior hallway. Nothing like being able to park right outside your room! It is not a new motel, so things were a bit dated, but like I said, it was all clean and working. I paid $40/ night from Priceline, that made it even nicer!I would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>My wife and I just returned from New Years weekend in Texas. We stayed at the Ramada and were quite pleased with the place. The front desk clerk was friendly and helpful at both check in and check out. The room was large and clean, ours had one king bed and a small sofa and a small refrigerator, but no microwave. Everything in the room worked including the free wireless internet access! Our particular room was on an outside wall, lower level, so we had two entrance doors, one to the parking area and one to the interior hallway. Nothing like being able to park right outside your room! It is not a new motel, so things were a bit dated, but like I said, it was all clean and working. I paid $40/ night from Priceline, that made it even nicer!I would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r5035388-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>5035388</t>
+  </si>
+  <si>
+    <t>05/04/2006</t>
+  </si>
+  <si>
+    <t>Poor Customer Service</t>
+  </si>
+  <si>
+    <t>The hotel room are clean but the customer service -----.I stayed at this property with a AAU basketball team.  I made my reservations 3 weeks in advance.  When I arrived they had me booked for a smoking and I requested non-smoking.Well the clerk  said that she had one room that someone had reserved and didn't show up.  Upon check in they charge you for your entire stay.  Wellme and my kids get ot the room and there's a couple in the bed......I go back to the desk and find out that they forgot to check the couple in.  Now I have no room.  To make a long story short they charged me twice for the room I never stayed in.  This hotel has POOR management.  Sorry customer service.  Please don't take your chances here.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel room are clean but the customer service -----.I stayed at this property with a AAU basketball team.  I made my reservations 3 weeks in advance.  When I arrived they had me booked for a smoking and I requested non-smoking.Well the clerk  said that she had one room that someone had reserved and didn't show up.  Upon check in they charge you for your entire stay.  Wellme and my kids get ot the room and there's a couple in the bed......I go back to the desk and find out that they forgot to check the couple in.  Now I have no room.  To make a long story short they charged me twice for the room I never stayed in.  This hotel has POOR management.  Sorry customer service.  Please don't take your chances here.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1101,1275 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_627.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_627.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>TexasTrojan74</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>Stayed here for 2 nights and Ill easy this, the place is far from perfect.  That begging said, my son and I slept great.  The building is old and could use some love.  Especially the stairwell, it could use a good cleaning and some paint.  There is no elevator at this property so the stairs get plenty of use.  The staff was nice but not friendly.  We didn't eat the breakfast so I can't comment I that.  The parking lot is very well lit and the location is convenient if you're inn town for a basketball or volleyball event at the Fieldhouse.Pros: Flat screen tv, quality fridge in the room, a/c worked great, clean room, comfy bed, great price.Cons: old building, needs some renovation,  no elevator.More</t>
   </si>
   <si>
+    <t>Alicia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r536070077-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when...I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when I asked (took awhile, so they must have had to hunt for some). When I used the phone to call the front desk, it smelled of smoke, so probably hadn't been wiped down in awhile. Proper cleaning hadn't been done; i.e., there were crumbs in the sides of the desk chair, the bottom of the tub looked dirty, the carpet had crumbs, I had to wipe down the refrigerator, the drawers, etc before I would put anything in them, the sofa had one bare arm, not what I would think would meet the standards of a Choice Hotel--aren't there some guidelines? Fortunately, I had brought my own hair dryer (the one in the bathroom didn't work). Since I'm gluten-free, I figured they wouldn't have many options for me for breakfast, so I told my husband I'd catch some extra sleep; he decided to give it a try, but he wasn't impressed--they ran out of coffee cups, and after a 20 minute wait, they finally came in with one for him; the breakfast area was messy, but he did give it a try again the next morning--disappointed again, coffee came out like water, again, messy. Next morning he decided to go to Denny's, guess the "free breakfast at the Non-quality Inn wasn't worth it. Overall, our stay wasn't as bad as I had expected after reading some of the other reviews. Meagan and the other front-desk staff were very pleasant and helpful (as much as possible). Our room was quiet, and our bed was very comfortable (in fact, I missed the bed when I got home, guess it's time for a new mattress!). I was told that the hotel is under new management and it may take awhile to take care of the long list of issues. By the way, the pool looked nice, but it was closed; you couldn't even sit by it (all the gates were locked), I did manage to find a lawn chair on the grass outside the pool gate to read awhile on a sunny afternoon, but I wonder if they advertise a pool, but it is always "Closed".More</t>
   </si>
   <si>
+    <t>911travelexprt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r521228552-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>My family checked into the Duncanville Quality Inn on August 16, 2017.  The first room assigned us smelled like mold and mildew.  The second room assigned us smelled like smoke.  The third room assigned us was dirty all over (easily visible when we walked into the room).  At this point I began to question if they had any acceptable rooms.  I called Choice Hotels/Quality Inn and asked for their help and was told since it was after 5 pm, no help was available.  So we went back to the front desk and requested a fourth room.  This room was better than the previous 3, but still had some issues that the hotel had a housekeeper clean for us.  The young lady at the desk hadn't been trained to handle all the problems that were coming her way (there was another family on their 4th room at the same time) and was on the verge of breaking down.  She could not reach the owner or manager by phone.  We were finally fine, after about a 2 hour process; but I cannot say that our stay was restful.More</t>
   </si>
   <si>
+    <t>nkt95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r504462398-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
   </si>
   <si>
     <t>1. Customer service, terrible- stood there waiting to be helped. As I watched them speak to other partrons rudely.2. No elevator- they gave us a room on the 2nd floor, my mom can't do steps.3. Not clean- the overall appearance, hallways, stairwell and room.4. Room- the toilet would run, we called to have someone look at it, they never came. The smoke detector was covered up. The handle was broken off the dresser door, the dresser was dirty, the tv had a bad reception (static). Had a fridge but no microwave.5. In all...we didn't feel safe, we couldn't stay here any longer, -We called and spoke to the manager. Went back to the front desk where again we waited to be served. The clerks kept talking to each other rather than us. The manager came out and after an additonal 4 mins, she said we were free to go. No signing off on paper, but my card was reimbursed.SAVE YOUR MONEY!!!More</t>
+  </si>
+  <si>
+    <t>Ellen P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r498074787-Quality_Inn-Duncanville_Texas.html</t>
@@ -270,6 +285,9 @@
 Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over...My husband and I checked into this nightmare last night, and fortunately for us, it was for one night only. We should have been tipped off when the unpleasant woman at the desk handed him a bottle of water and a bag of chips and said: "I have to give you these." Down the hall we headed toward our room, noting along the way the shabbiness of the place. Once in our room, we noted that the room had a foul odor, the arms on the sofa were completely worn down, and the toilet paper holder was broken. Soon there were some people in the adjoining parking lot who were carrying on a loud conversation, which we could hear completely. Once we got to sleep, we were awakened by the sound of someone trying to enter our room. Through the peephole, I could see that a couple were trying to open our door. I have no way of knowing if it was their mistake or that of the hotel. I only know it shook us out of our sleep. We are used to the complimentary breakfasts offered by Choice Hotels, but this place offered very sparse snd unpleasant selections, prompting us to visit a local restaurant for s real breakfast. Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over into the floor. We were so happy to escape this hell hole!!!More</t>
   </si>
   <si>
+    <t>Lynette H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r496380808-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>One of the worst hotel I've ever stayed at and I travel a lot.  1. Room key didn't work every time I left the hotel as well as during check in. 2. Tried to call front desk with cell phone but no one ever answered hand to walk back down ( no elevator). 3. Third day house keeping left cleaning products in the room. 4. Fourth day housekeeping only did have bathroom and beds not made or trash not taken. 5. Fifth day no housekeeping at all after complaining to staff that we did get complete housekeeping the previous day. 6. We also had the fire alarm going off for about 20 minutes with no public announcement n of course no one answered the phone. Other customers alerted us of the problem  and the all clear.  This was awful and because of all the events in the area no other vacancies available. Was also told I would have a microwave and refrigerator in or room and shopped online before our arrival accordingly only to find I didn't, causing us to loose money because our food went bad.  Bad bad bad hottMore</t>
   </si>
   <si>
+    <t>G3311956</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r462551041-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t>We stayed here last Sunday for 1 night and have to say after checking in we were surprised. Our rooms were in the back of the hotel so we used the back entrance to our room, which was also on the 2nd floor.We were immediately wondering if we had made a mistake. The lobby and front area of the hotel looked very nice but going in the back way not so much. By the way that back door does need to be fixed, it doesn't lock.We got to our room and nothing wrong. Everything was clean and fresh. Cozy bed and pillows.We had a problem with the shower later on and were moved right away into another room. Breakfast was normal for a hotel, eggs, sausage and the likes but well taken care of and the people at the desk very friendly and helpful.More</t>
   </si>
   <si>
+    <t>WolfgangThis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r455771257-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Kelly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r430951078-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Kristin E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r416608277-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Chad B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r410825508-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -393,6 +426,9 @@
     <t>I checked into this hotel using Hotels.com for the first night.  Everything went well.  I do have to say the hotel does need updating.  Then on the second night, my business partner attempted to book again using Hotels.com and it would not work, Hotels.com was down.  So I booked the hotel under my Choice Privileges account for a lower rate.  I then went to the front desk to get a credit card authorization to send to my business partner so she could pay for my stay.  When we finally got the credit card authorization completed, they noticed the Hotels.com reservation had came through, so we cancelled the one using the choicehotels.com website.  The next day my business partner checked her bank account and found two charge for Sonic Drive-In totalling $65.00 and another charge that did not go through to an electric company in Texas.  Apparently, someone at the hotel decided to have dinner and try to pay their electric bill with my business partners money.  At this time it has been reported to the Duncaville Police Department and they are investigating the matter, kind of stupid that someone would try to pay their electric bill using a stolen credit card information, it will lead right to the suspect.  Hope the person is caught and they are jailed for a very long time for taking from an elderly disabled person!More</t>
   </si>
   <si>
+    <t>Ivan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r407296093-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>My Family and I checked in quite late after a 10 hour drive. We were exhausted and our first room had a roach and the carpet was torn.The sheets were stained and there were cheetos under the bed. Like seriously how dirty can it be. We asked to switch rooms and our second room had a mushroom growing from the ground and torn wallpaper. It wasn't as bad as the first room but certainly not acceptable. The hallways were humid as well and there were used towels thrown near the garbage. I truly think this place needs to be torned down. I was just a horrible stay.</t>
   </si>
   <si>
+    <t>Caroline E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r378449942-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -426,6 +465,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>David P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r356203790-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -447,6 +489,9 @@
     <t>I got 2 rooms for 4 employees for an overnight stay.First the rooms were not ready at check in time, 30 minutes late. OK, things sometimes happen.The first room was still not cleaned, the front desk assigned another room, when we got to this room it was still occupied, got another room it also was not clean, finally got assigned back to the original room. It had been cleaned, but the bed linens and comforter when stained with what appeared to be blood.The second room that we paid for had feces smeared on the wall, the front desk assigned another room, but this one had beds that appeared to have been slept on and the bathroom floor was covered with pubic hair.I did get a refund with management apologies, and we left as fast as we could.I know, I know this sounds ridiculous, but this is the gods truth.Don't stop, don't even slow down, just keep going PLEASE.More</t>
   </si>
   <si>
+    <t>Carmen R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r297056370-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -468,6 +513,9 @@
     <t>I stayed here with my kids as I was on my way to OK to visit some friends. Staff was very corteous and helpful. We walked in the middle of the night and Aaron the front desk could'nt be more friendly and helpful finding us a nice room for us to rest. We ended up extendinding our stay for one more day. Next day as i walked down the hall I find I saw the front desk coming out of the room with a lady. I asked the front desk and she told me that Mr. Aaron lives at the property with his wife as he is the one the managers of the place and enforce the security of the place. It is nice to know that you are staying in a place where someone is there on call to deal with any situatuon that may arise at all times. We will stay in OK until the last week of August, when school starts. We will definetly stop at the Haven Hotel for resting on our way back... By the way Miss Belinda the morning front desk is also awesome. Very friendly and helpfull.More</t>
   </si>
   <si>
+    <t>miniman23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r274766558-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>tjackatl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r17610560-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -502,6 +553,9 @@
   </si>
   <si>
     <t>June 2008</t>
+  </si>
+  <si>
+    <t>TravelingREVMdM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r14971101-Quality_Inn-Duncanville_Texas.html</t>
@@ -526,6 +580,9 @@
 The front desk was less than helpful - and first put me in a non- smoking room that was filled with smoke odors - I complained and they changed my room - this room had plenty of problems including black ants in the bed, paint peeling from the walls and ceiling, and when I took a shower, huge globs of hair began to come into the tub out of the drain - and the tub did not drain either 
 The carpet was dirty and frayed - the room at two doors - one leading to an outside courtyard - the door was tough to secure and I placed furniture in front of it at night for protection - the weather strip under the door was missing, so bugs were coming in the room.  The pillow cases had stains on them - it just was not a pleasant environment - on two different occasions, people tried to get into my room with keys that they had received from the front desk - so they obviously did not pay much attention to how they booked the rooms or who was already in them.
 The Internet service costs 35 cents a minute and $1.00 a page...This Hotel is no longer a Ramada but rather now called the Best West Inn - it was booked by a friend of mine who thought it was a Best Western - do not be fooled - The front desk was less than helpful - and first put me in a non- smoking room that was filled with smoke odors - I complained and they changed my room - this room had plenty of problems including black ants in the bed, paint peeling from the walls and ceiling, and when I took a shower, huge globs of hair began to come into the tub out of the drain - and the tub did not drain either The carpet was dirty and frayed - the room at two doors - one leading to an outside courtyard - the door was tough to secure and I placed furniture in front of it at night for protection - the weather strip under the door was missing, so bugs were coming in the room.  The pillow cases had stains on them - it just was not a pleasant environment - on two different occasions, people tried to get into my room with keys that they had received from the front desk - so they obviously did not pay much attention to how they booked the rooms or who was already in them.The Internet service costs 35 cents a minute and $1.00 a page - so you can imagine that just after a few minutes on line that it would be very expensive - and only one of the two computers was actually workingWhen I checked in, I found that the room did not have enough hangers so I went to the front desk - but was told that I could not get any more because everyone in housekeeping had gone home - so I walked down the hall - saw lots of maids, followed them to housekeeping and got more hangers - again - the front desk was just not helpful at all. Only one small bar of soap was given in the bathroom - so you had to remember to take it with you into the showerThe pool was closed even though it was very warm - and the grass was not mowed well, nor were the trees trimmed well - in fact they had dead branches hanging down - there was a very loud and noisy wedding that night that lasted well past 2 a.m. along with a teen party of some kind - the next morning there was trash all over the foyer and lobby - someone was just starting to clean it up at 10 a.m. - I mean there was a lot of dirt and debris from these two parties -  and this was well after it was over and people are coming and goingThe restaurant was a Spanish Restaurant with a limited menu - I did not see anyone eathing in there at any meal times - after two days I checked out and went to the real Best Western and I would encourage anyone considering staying at this hotel to do the same before they actually check in - because the Best West Inn certainly was far from the BestMore</t>
+  </si>
+  <si>
+    <t>Steve H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r8240593-Quality_Inn-Duncanville_Texas.html</t>
@@ -564,6 +621,9 @@
 Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and...After a delayed arrival into DFW, drove to Duncanville, arriving at the Ramada on Camp Wisdom about 2 a.m. on a Sunday morning.The surly desk clerk seemed to none too pleased to see me but after some difficulty managed to get me a room key.The room, a "poolside" room had an overpowerind odor of mildew and, in fact, the walls and floors were covered with mold.  The airconditioner from the room above was spewing humidity runoff into this room and the floor -- and carpet -- were sopping wet.When I dragged my luggage and myself back to the front desk to ask for a habitable room, the now surlier desk clerk informed me that this was an older property, all rooms were like the one she had assigned me and that , if I wanted a nice room, I should "go to the Hilton."She actually refused to even consider changing my room assignment until I made it clear I was not going back to the moldy one.After some back and forth, I managed to get her to give me a different room on the second floor.  This one did not smell of mold and was not flooded, but I did notice a number of bugs go running when I turned the lights on.Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and checked into the nearby and brand new Hilton, which was fabulous!Not sure what hotel my fellow raters were evaluating but doesn't seem possible it is this one!More</t>
   </si>
   <si>
+    <t>sstraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r6534821-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -583,6 +643,9 @@
   </si>
   <si>
     <t>My wife and I just returned from New Years weekend in Texas. We stayed at the Ramada and were quite pleased with the place. The front desk clerk was friendly and helpful at both check in and check out. The room was large and clean, ours had one king bed and a small sofa and a small refrigerator, but no microwave. Everything in the room worked including the free wireless internet access! Our particular room was on an outside wall, lower level, so we had two entrance doors, one to the parking area and one to the interior hallway. Nothing like being able to park right outside your room! It is not a new motel, so things were a bit dated, but like I said, it was all clean and working. I paid $40/ night from Priceline, that made it even nicer!I would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r5035388-Quality_Inn-Duncanville_Texas.html</t>
@@ -1105,43 +1168,47 @@
       <c r="A2" t="n">
         <v>1054</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1155,50 +1222,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1054</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>29854</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1218,50 +1289,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1054</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1279,50 +1354,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1054</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174255</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1336,50 +1415,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1054</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>29467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1393,50 +1476,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1054</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174256</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1450,50 +1537,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1054</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1511,50 +1602,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1054</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1568,50 +1663,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1054</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>9088</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1625,50 +1724,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1054</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>55942</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1688,50 +1791,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1054</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>33163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1751,50 +1858,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1054</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174259</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1808,50 +1919,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1054</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>106539</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -1871,50 +1986,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1054</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>709</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1934,50 +2053,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1054</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>40443</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1991,50 +2114,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1054</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174260</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2054,50 +2181,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1054</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174261</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2121,41 +2252,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1054</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174262</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2174,50 +2309,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1054</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="P20" t="n">
         <v>1</v>
@@ -2241,50 +2380,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1054</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2308,41 +2451,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1054</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -2367,7 +2514,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_627.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_627.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>TexasTrojan74</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r590441927-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>55771</t>
+  </si>
+  <si>
+    <t>1603881</t>
+  </si>
+  <si>
+    <t>590441927</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Unauthorized Charging</t>
+  </si>
+  <si>
+    <t>Beware of this hotel! They are charging even reservation was canceled and/or without actually having any reservation with them. Check your account or better have your credit card be replaced. I will never ever visit this place.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r577154384-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>577154384</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Please Read This Before Booking</t>
+  </si>
+  <si>
+    <t>Check-in was slow. No elevator. No complimentary breakfast (as advertised). 1/2" gap on my 2nd floor window. Noisy--dogs barking, traffic. Toilet wouldn't flush-was offered a plunger. No hot water for shower. Towels had stains. The carpet was filthy. The outlets didn't work. The iron and hair dryer were missing. The stairs were dirty and narrow. The side entrances had security locks, but were damaged--so no security.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r576055486-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>576055486</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>APRIL 23 2018 HORRIBLE</t>
+  </si>
+  <si>
+    <t>Horrible, Dirty, Entry Door Knob Loose,Toilet Dirty, Cob webs, Perimeter around room dirty, phone did not work, service marginal.Staying there 5 nights, checked out the next day.I would not recommend.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r571905037-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
-    <t>55771</t>
-  </si>
-  <si>
-    <t>1603881</t>
-  </si>
-  <si>
     <t>571905037</t>
   </si>
   <si>
@@ -174,18 +225,9 @@
     <t>Stayed here for 2 nights and Ill easy this, the place is far from perfect.  That begging said, my son and I slept great.  The building is old and could use some love.  Especially the stairwell, it could use a good cleaning and some paint.  There is no elevator at this property so the stairs get plenty of use.  The staff was nice but not friendly.  We didn't eat the breakfast so I can't comment I that.  The parking lot is very well lit and the location is convenient if you're inn town for a basketball or volleyball event at the Fieldhouse.Pros: Flat screen tv, quality fridge in the room, a/c worked great, clean room, comfy bed, great price.Cons: old building, needs some renovation,  no elevator.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Stayed here for 2 nights and Ill easy this, the place is far from perfect.  That begging said, my son and I slept great.  The building is old and could use some love.  Especially the stairwell, it could use a good cleaning and some paint.  There is no elevator at this property so the stairs get plenty of use.  The staff was nice but not friendly.  We didn't eat the breakfast so I can't comment I that.  The parking lot is very well lit and the location is convenient if you're inn town for a basketball or volleyball event at the Fieldhouse.Pros: Flat screen tv, quality fridge in the room, a/c worked great, clean room, comfy bed, great price.Cons: old building, needs some renovation,  no elevator.More</t>
   </si>
   <si>
-    <t>Alicia C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r536070077-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -207,9 +249,6 @@
     <t>I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when...I had booked an American Airlines pkg that included air/hotel/car rental a few months ago, at which time the reviews didn't seem so bad. I happened to check reviews the day before our flight, and after reading them was skeptical,  so I made some calls to see if I could pick a different hotel for our 7-nt stay. AmAir rep said if I read the details on my initial confirmation I would see that it was too late to make any changes. Upon arrival at the hotel, there was yellow tape around the entrance (my thought was "oh no, hope it's not a crime scene", and by the grace of God, it wasn't); they had just painted and the paint was still wet, so they taped it off--what a relief. I told Meagan I have allergies, and if the room we got had a strong odor I would have a problem. She let my husband look at 2 rms that were available, and he selected what he thought was the better of the 2. Although new carpet had been laid on the stairs to the 2nd flr, the stairway looked dirty, the halls on the way to the rm smelled of smoke, but the bed had clean sheets and the towels were clean and the room locks were secure. I had brought some "Zero-Odor" spray which helped. Only 2 clothes hangers, but they did bring me a few more when I asked (took awhile, so they must have had to hunt for some). When I used the phone to call the front desk, it smelled of smoke, so probably hadn't been wiped down in awhile. Proper cleaning hadn't been done; i.e., there were crumbs in the sides of the desk chair, the bottom of the tub looked dirty, the carpet had crumbs, I had to wipe down the refrigerator, the drawers, etc before I would put anything in them, the sofa had one bare arm, not what I would think would meet the standards of a Choice Hotel--aren't there some guidelines? Fortunately, I had brought my own hair dryer (the one in the bathroom didn't work). Since I'm gluten-free, I figured they wouldn't have many options for me for breakfast, so I told my husband I'd catch some extra sleep; he decided to give it a try, but he wasn't impressed--they ran out of coffee cups, and after a 20 minute wait, they finally came in with one for him; the breakfast area was messy, but he did give it a try again the next morning--disappointed again, coffee came out like water, again, messy. Next morning he decided to go to Denny's, guess the "free breakfast at the Non-quality Inn wasn't worth it. Overall, our stay wasn't as bad as I had expected after reading some of the other reviews. Meagan and the other front-desk staff were very pleasant and helpful (as much as possible). Our room was quiet, and our bed was very comfortable (in fact, I missed the bed when I got home, guess it's time for a new mattress!). I was told that the hotel is under new management and it may take awhile to take care of the long list of issues. By the way, the pool looked nice, but it was closed; you couldn't even sit by it (all the gates were locked), I did manage to find a lawn chair on the grass outside the pool gate to read awhile on a sunny afternoon, but I wonder if they advertise a pool, but it is always "Closed".More</t>
   </si>
   <si>
-    <t>911travelexprt</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r521228552-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -231,7 +270,45 @@
     <t>My family checked into the Duncanville Quality Inn on August 16, 2017.  The first room assigned us smelled like mold and mildew.  The second room assigned us smelled like smoke.  The third room assigned us was dirty all over (easily visible when we walked into the room).  At this point I began to question if they had any acceptable rooms.  I called Choice Hotels/Quality Inn and asked for their help and was told since it was after 5 pm, no help was available.  So we went back to the front desk and requested a fourth room.  This room was better than the previous 3, but still had some issues that the hotel had a housekeeper clean for us.  The young lady at the desk hadn't been trained to handle all the problems that were coming her way (there was another family on their 4th room at the same time) and was on the verge of breaking down.  She could not reach the owner or manager by phone.  We were finally fine, after about a 2 hour process; but I cannot say that our stay was restful.More</t>
   </si>
   <si>
-    <t>nkt95</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r510768522-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>510768522</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>This place is a DUMP with potential.</t>
+  </si>
+  <si>
+    <t>To start things off, the initial check-in process took forever. 
+The hotel is supposed to be 100% smoke free, as the sign behind the front desk states. As I walked to my room on the 2nd floor, one of the hotel guests had their room door open and you could smell a strong stench of incense, another had the smell of marijuana coming through a closed door. When I got to my room, there were 2 ashtrays! There was also a half empty bag of DOG FOOD! Upon seeing this, I marched back down the filthy hallway and stairs and gave them the bag of dog food, told them about the ashtrays, and told them I would need another room. I waited an additional 45 minutes (!) for another one to be cleaned before finally being able to go to the new room. Upon entering this new room, there was a HEAVY smell of air freshener in the room, enough to make some people faint. One of the towels was full of hair and the shower had hair on the wall! The hotel and the area it is in does not have a safe feel to it, at all. There was a parked police car in the parking lot that I think is just there for show to try to deter illegal activities as it was there when I checked in and still hadn't moved when I checked out. The...To start things off, the initial check-in process took forever. The hotel is supposed to be 100% smoke free, as the sign behind the front desk states. As I walked to my room on the 2nd floor, one of the hotel guests had their room door open and you could smell a strong stench of incense, another had the smell of marijuana coming through a closed door. When I got to my room, there were 2 ashtrays! There was also a half empty bag of DOG FOOD! Upon seeing this, I marched back down the filthy hallway and stairs and gave them the bag of dog food, told them about the ashtrays, and told them I would need another room. I waited an additional 45 minutes (!) for another one to be cleaned before finally being able to go to the new room. Upon entering this new room, there was a HEAVY smell of air freshener in the room, enough to make some people faint. One of the towels was full of hair and the shower had hair on the wall! The hotel and the area it is in does not have a safe feel to it, at all. There was a parked police car in the parking lot that I think is just there for show to try to deter illegal activities as it was there when I checked in and still hadn't moved when I checked out. The whole experience of this hotel was an unmitigated disaster. On the positive side, there is a nice outdoor swimming pool. And although I did not have time to eat the continental breakfast in the morning, the dining area actually looked upscale for this type of hotel. If they could find employees who will actually do a good job and CLEAN the place, speed up the check-in process, and not allow people to bring all sorts of things that make it stink like incense, cigarettes, and marijuana etc. then this hotel really wouldn't be half bad. But until that happens...do not be fooled by the economical price and DO NOT stay at this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>To start things off, the initial check-in process took forever. 
+The hotel is supposed to be 100% smoke free, as the sign behind the front desk states. As I walked to my room on the 2nd floor, one of the hotel guests had their room door open and you could smell a strong stench of incense, another had the smell of marijuana coming through a closed door. When I got to my room, there were 2 ashtrays! There was also a half empty bag of DOG FOOD! Upon seeing this, I marched back down the filthy hallway and stairs and gave them the bag of dog food, told them about the ashtrays, and told them I would need another room. I waited an additional 45 minutes (!) for another one to be cleaned before finally being able to go to the new room. Upon entering this new room, there was a HEAVY smell of air freshener in the room, enough to make some people faint. One of the towels was full of hair and the shower had hair on the wall! The hotel and the area it is in does not have a safe feel to it, at all. There was a parked police car in the parking lot that I think is just there for show to try to deter illegal activities as it was there when I checked in and still hadn't moved when I checked out. The...To start things off, the initial check-in process took forever. The hotel is supposed to be 100% smoke free, as the sign behind the front desk states. As I walked to my room on the 2nd floor, one of the hotel guests had their room door open and you could smell a strong stench of incense, another had the smell of marijuana coming through a closed door. When I got to my room, there were 2 ashtrays! There was also a half empty bag of DOG FOOD! Upon seeing this, I marched back down the filthy hallway and stairs and gave them the bag of dog food, told them about the ashtrays, and told them I would need another room. I waited an additional 45 minutes (!) for another one to be cleaned before finally being able to go to the new room. Upon entering this new room, there was a HEAVY smell of air freshener in the room, enough to make some people faint. One of the towels was full of hair and the shower had hair on the wall! The hotel and the area it is in does not have a safe feel to it, at all. There was a parked police car in the parking lot that I think is just there for show to try to deter illegal activities as it was there when I checked in and still hadn't moved when I checked out. The whole experience of this hotel was an unmitigated disaster. On the positive side, there is a nice outdoor swimming pool. And although I did not have time to eat the continental breakfast in the morning, the dining area actually looked upscale for this type of hotel. If they could find employees who will actually do a good job and CLEAN the place, speed up the check-in process, and not allow people to bring all sorts of things that make it stink like incense, cigarettes, and marijuana etc. then this hotel really wouldn't be half bad. But until that happens...do not be fooled by the economical price and DO NOT stay at this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r506494571-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>506494571</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Want to pay and not stay?</t>
+  </si>
+  <si>
+    <t>Horrible rooms.first room was dirty second one smelled like weed. Got switched twice and decided not to stay , made us pay cash and no receipt. Guy at the front desk seemed inebriated .Had to come back the next day to talk to manager to get some money back. DONT EVER STAY HERE.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r504462398-Quality_Inn-Duncanville_Texas.html</t>
@@ -249,13 +326,7 @@
     <t>1. Customer service, terrible- stood there waiting to be helped. As I watched them speak to other partrons rudely.2. No elevator- they gave us a room on the 2nd floor, my mom can't do steps.3. Not clean- the overall appearance, hallways, stairwell and room.4. Room- the toilet would run, we called to have someone look at it, they never came. The smoke detector was covered up. The handle was broken off the dresser door, the dresser was dirty, the tv had a bad reception (static). Had a fridge but no microwave.5. In all...we didn't feel safe, we couldn't stay here any longer, -We called and spoke to the manager. Went back to the front desk where again we waited to be served. The clerks kept talking to each other rather than us. The manager came out and after an additonal 4 mins, she said we were free to go. No signing off on paper, but my card was reimbursed.SAVE YOUR MONEY!!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>1. Customer service, terrible- stood there waiting to be helped. As I watched them speak to other partrons rudely.2. No elevator- they gave us a room on the 2nd floor, my mom can't do steps.3. Not clean- the overall appearance, hallways, stairwell and room.4. Room- the toilet would run, we called to have someone look at it, they never came. The smoke detector was covered up. The handle was broken off the dresser door, the dresser was dirty, the tv had a bad reception (static). Had a fridge but no microwave.5. In all...we didn't feel safe, we couldn't stay here any longer, -We called and spoke to the manager. Went back to the front desk where again we waited to be served. The clerks kept talking to each other rather than us. The manager came out and after an additonal 4 mins, she said we were free to go. No signing off on paper, but my card was reimbursed.SAVE YOUR MONEY!!!More</t>
-  </si>
-  <si>
-    <t>Ellen P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r498074787-Quality_Inn-Duncanville_Texas.html</t>
@@ -285,9 +356,6 @@
 Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over...My husband and I checked into this nightmare last night, and fortunately for us, it was for one night only. We should have been tipped off when the unpleasant woman at the desk handed him a bottle of water and a bag of chips and said: "I have to give you these." Down the hall we headed toward our room, noting along the way the shabbiness of the place. Once in our room, we noted that the room had a foul odor, the arms on the sofa were completely worn down, and the toilet paper holder was broken. Soon there were some people in the adjoining parking lot who were carrying on a loud conversation, which we could hear completely. Once we got to sleep, we were awakened by the sound of someone trying to enter our room. Through the peephole, I could see that a couple were trying to open our door. I have no way of knowing if it was their mistake or that of the hotel. I only know it shook us out of our sleep. We are used to the complimentary breakfasts offered by Choice Hotels, but this place offered very sparse snd unpleasant selections, prompting us to visit a local restaurant for s real breakfast. Choosing to exit by the rear door since our car was parked near that door, we walked by a trash can that was grossly overflowing, with its contents spilling over into the floor. We were so happy to escape this hell hole!!!More</t>
   </si>
   <si>
-    <t>Lynette H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r496380808-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -312,7 +380,46 @@
     <t>One of the worst hotel I've ever stayed at and I travel a lot.  1. Room key didn't work every time I left the hotel as well as during check in. 2. Tried to call front desk with cell phone but no one ever answered hand to walk back down ( no elevator). 3. Third day house keeping left cleaning products in the room. 4. Fourth day housekeeping only did have bathroom and beds not made or trash not taken. 5. Fifth day no housekeeping at all after complaining to staff that we did get complete housekeeping the previous day. 6. We also had the fire alarm going off for about 20 minutes with no public announcement n of course no one answered the phone. Other customers alerted us of the problem  and the all clear.  This was awful and because of all the events in the area no other vacancies available. Was also told I would have a microwave and refrigerator in or room and shopped online before our arrival accordingly only to find I didn't, causing us to loose money because our food went bad.  Bad bad bad hottMore</t>
   </si>
   <si>
-    <t>G3311956</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r495434734-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>495434734</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>very nice owners people at desk were very helpful</t>
+  </si>
+  <si>
+    <t>the people here are awesome our truck was at freightliner for 4 days  they went above and beyond any hotel i have ever stayed at staff was awesome the owners were the greatest.we travel with two small dogs they were not a problem most hotels dont even let you have pets.since our truck was at freightliner we had no transportation they drove us where ever we wanted to go.highly recommend</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r480556054-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>480556054</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Hard to decide between a 2 and a 3</t>
+  </si>
+  <si>
+    <t>The room itself was fine. Clean, comfortable, just what we needed because we didn't spend a lot of time there. The hotel itself needs updating. The location is good for restaurants and Duncanville Fieldhouse. But other then that, it's not in a prime location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>The room itself was fine. Clean, comfortable, just what we needed because we didn't spend a lot of time there. The hotel itself needs updating. The location is good for restaurants and Duncanville Fieldhouse. But other then that, it's not in a prime location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r462551041-Quality_Inn-Duncanville_Texas.html</t>
@@ -336,9 +443,6 @@
     <t>We stayed here last Sunday for 1 night and have to say after checking in we were surprised. Our rooms were in the back of the hotel so we used the back entrance to our room, which was also on the 2nd floor.We were immediately wondering if we had made a mistake. The lobby and front area of the hotel looked very nice but going in the back way not so much. By the way that back door does need to be fixed, it doesn't lock.We got to our room and nothing wrong. Everything was clean and fresh. Cozy bed and pillows.We had a problem with the shower later on and were moved right away into another room. Breakfast was normal for a hotel, eggs, sausage and the likes but well taken care of and the people at the desk very friendly and helpful.More</t>
   </si>
   <si>
-    <t>WolfgangThis</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r455771257-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -357,9 +461,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>Kelly T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r430951078-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -378,7 +479,43 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Kristin E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r423444615-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>423444615</t>
+  </si>
+  <si>
+    <t>09/29/2016</t>
+  </si>
+  <si>
+    <t>Im not too sure on my dates</t>
+  </si>
+  <si>
+    <t>Before Red Roof Inn on Esters in Irving this was the best place for me and my GF i loved the breakfast loved the staff Jerry was the mngr at the time would love the oportunity to go back. The staff were great the parking lot stayed clean trash never over filled. Good job i hope to visit soon</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r421414603-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>421414603</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY TERRIBLE EXPERIENCE</t>
+  </si>
+  <si>
+    <t>The rooms need maintenance ,moreover there was no room service during my entire stay. when i went to take towels at front desk they told me that they are out of stock and i will not get till the next morning.TV and refrigerator was not working.Front desk needs more training.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r416608277-Quality_Inn-Duncanville_Texas.html</t>
@@ -396,15 +533,6 @@
     <t>Not a pleasant place to stay, it looked as if people were living in the hotel.  Nothing worked in the fitness center, not even any air.  Didn't feel that clean.  Would not recommend it.  I did not feel safe.  Wifi did not work, manager rather rude.</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Chad B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r410825508-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -426,9 +554,6 @@
     <t>I checked into this hotel using Hotels.com for the first night.  Everything went well.  I do have to say the hotel does need updating.  Then on the second night, my business partner attempted to book again using Hotels.com and it would not work, Hotels.com was down.  So I booked the hotel under my Choice Privileges account for a lower rate.  I then went to the front desk to get a credit card authorization to send to my business partner so she could pay for my stay.  When we finally got the credit card authorization completed, they noticed the Hotels.com reservation had came through, so we cancelled the one using the choicehotels.com website.  The next day my business partner checked her bank account and found two charge for Sonic Drive-In totalling $65.00 and another charge that did not go through to an electric company in Texas.  Apparently, someone at the hotel decided to have dinner and try to pay their electric bill with my business partners money.  At this time it has been reported to the Duncaville Police Department and they are investigating the matter, kind of stupid that someone would try to pay their electric bill using a stolen credit card information, it will lead right to the suspect.  Hope the person is caught and they are jailed for a very long time for taking from an elderly disabled person!More</t>
   </si>
   <si>
-    <t>Ivan H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r407296093-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -444,7 +569,43 @@
     <t>My Family and I checked in quite late after a 10 hour drive. We were exhausted and our first room had a roach and the carpet was torn.The sheets were stained and there were cheetos under the bed. Like seriously how dirty can it be. We asked to switch rooms and our second room had a mushroom growing from the ground and torn wallpaper. It wasn't as bad as the first room but certainly not acceptable. The hallways were humid as well and there were used towels thrown near the garbage. I truly think this place needs to be torned down. I was just a horrible stay.</t>
   </si>
   <si>
-    <t>Caroline E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r395238599-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>395238599</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>The good, the bad, and the LOUD</t>
+  </si>
+  <si>
+    <t>Location is good, Rooms (mine, anyway) and hallways were clean. But the front desk staff needs better training (multi-tasking for example). Location of ice machine is ridiculous. A big, loud party was held in the restaurant on Saturday night and lasted very late. It could be heard in rooms far from the restaurant.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r385570953-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>385570953</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Not so Quality</t>
+  </si>
+  <si>
+    <t>Traveled with another couple.  They moved 3 different rooms the night before we arrived.  Red stains in the tub. Upon check it customer was locked out of room.  Come to find out me and the couple locked out 3 different times.  Free breakfast was nasty and floors where super sticky, almost lost a shoe.  Ran out of syrup and dude was mad he had to bring out more.Room had piece of broken glass on floor, necklace, baby clothes and bottle under the bed.  On 2nd night police showed up and arrested someone.  Housekeeping, must have just quit, because room did not get made up.  Had to beg for new sheets and towels.Hall floors are filthy.  Exercise equipment was rusted.  Parking lot was full of trash.I felt like I went to the hood for vacation.Will never stay at one of these places ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Traveled with another couple.  They moved 3 different rooms the night before we arrived.  Red stains in the tub. Upon check it customer was locked out of room.  Come to find out me and the couple locked out 3 different times.  Free breakfast was nasty and floors where super sticky, almost lost a shoe.  Ran out of syrup and dude was mad he had to bring out more.Room had piece of broken glass on floor, necklace, baby clothes and bottle under the bed.  On 2nd night police showed up and arrested someone.  Housekeeping, must have just quit, because room did not get made up.  Had to beg for new sheets and towels.Hall floors are filthy.  Exercise equipment was rusted.  Parking lot was full of trash.I felt like I went to the hood for vacation.Will never stay at one of these places ever again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r378449942-Quality_Inn-Duncanville_Texas.html</t>
@@ -465,9 +626,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>David P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r356203790-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -489,9 +647,6 @@
     <t>I got 2 rooms for 4 employees for an overnight stay.First the rooms were not ready at check in time, 30 minutes late. OK, things sometimes happen.The first room was still not cleaned, the front desk assigned another room, when we got to this room it was still occupied, got another room it also was not clean, finally got assigned back to the original room. It had been cleaned, but the bed linens and comforter when stained with what appeared to be blood.The second room that we paid for had feces smeared on the wall, the front desk assigned another room, but this one had beds that appeared to have been slept on and the bathroom floor was covered with pubic hair.I did get a refund with management apologies, and we left as fast as we could.I know, I know this sounds ridiculous, but this is the gods truth.Don't stop, don't even slow down, just keep going PLEASE.More</t>
   </si>
   <si>
-    <t>Carmen R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r297056370-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -513,7 +668,43 @@
     <t>I stayed here with my kids as I was on my way to OK to visit some friends. Staff was very corteous and helpful. We walked in the middle of the night and Aaron the front desk could'nt be more friendly and helpful finding us a nice room for us to rest. We ended up extendinding our stay for one more day. Next day as i walked down the hall I find I saw the front desk coming out of the room with a lady. I asked the front desk and she told me that Mr. Aaron lives at the property with his wife as he is the one the managers of the place and enforce the security of the place. It is nice to know that you are staying in a place where someone is there on call to deal with any situatuon that may arise at all times. We will stay in OK until the last week of August, when school starts. We will definetly stop at the Haven Hotel for resting on our way back... By the way Miss Belinda the morning front desk is also awesome. Very friendly and helpfull.More</t>
   </si>
   <si>
-    <t>miniman23</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r296189836-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>296189836</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll definitely be coming back again!!! Clean rooms, great staff, nice amenities, and the price was unbeatable. Best hotel anywhere in the area and plenty of place to get a bite to eat near by. The place was very quiet and even had a fitness room for me to work out in.                                            </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r281213610-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>281213610</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>This place needs better people skills</t>
+  </si>
+  <si>
+    <t>When you first walk in its never nice. I've stayed here a few times, but every time I rent a room it's either dirty, plumbing issues, ac doesn't work right, or the floors are soaked in the rooms. Also the gentleman at the front desk named Aaron in my opinion shouldn't be an employee of this hotel he is very rude an unprofessional in a work place. This gentleman speak to his fellow employees very rude in front of your guest with no respect. I will not be staying at this hotel again. I would love to stay here if this place wasn't such a mess and this place had more front desk staff like the 2 nice ladies you all have working there Belinda and Page. They are very kind and respectful also very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>When you first walk in its never nice. I've stayed here a few times, but every time I rent a room it's either dirty, plumbing issues, ac doesn't work right, or the floors are soaked in the rooms. Also the gentleman at the front desk named Aaron in my opinion shouldn't be an employee of this hotel he is very rude an unprofessional in a work place. This gentleman speak to his fellow employees very rude in front of your guest with no respect. I will not be staying at this hotel again. I would love to stay here if this place wasn't such a mess and this place had more front desk staff like the 2 nice ladies you all have working there Belinda and Page. They are very kind and respectful also very helpful.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r274766558-Quality_Inn-Duncanville_Texas.html</t>
@@ -534,9 +725,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>tjackatl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r17610560-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -553,9 +741,6 @@
   </si>
   <si>
     <t>June 2008</t>
-  </si>
-  <si>
-    <t>TravelingREVMdM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r14971101-Quality_Inn-Duncanville_Texas.html</t>
@@ -582,7 +767,44 @@
 The Internet service costs 35 cents a minute and $1.00 a page...This Hotel is no longer a Ramada but rather now called the Best West Inn - it was booked by a friend of mine who thought it was a Best Western - do not be fooled - The front desk was less than helpful - and first put me in a non- smoking room that was filled with smoke odors - I complained and they changed my room - this room had plenty of problems including black ants in the bed, paint peeling from the walls and ceiling, and when I took a shower, huge globs of hair began to come into the tub out of the drain - and the tub did not drain either The carpet was dirty and frayed - the room at two doors - one leading to an outside courtyard - the door was tough to secure and I placed furniture in front of it at night for protection - the weather strip under the door was missing, so bugs were coming in the room.  The pillow cases had stains on them - it just was not a pleasant environment - on two different occasions, people tried to get into my room with keys that they had received from the front desk - so they obviously did not pay much attention to how they booked the rooms or who was already in them.The Internet service costs 35 cents a minute and $1.00 a page - so you can imagine that just after a few minutes on line that it would be very expensive - and only one of the two computers was actually workingWhen I checked in, I found that the room did not have enough hangers so I went to the front desk - but was told that I could not get any more because everyone in housekeeping had gone home - so I walked down the hall - saw lots of maids, followed them to housekeeping and got more hangers - again - the front desk was just not helpful at all. Only one small bar of soap was given in the bathroom - so you had to remember to take it with you into the showerThe pool was closed even though it was very warm - and the grass was not mowed well, nor were the trees trimmed well - in fact they had dead branches hanging down - there was a very loud and noisy wedding that night that lasted well past 2 a.m. along with a teen party of some kind - the next morning there was trash all over the foyer and lobby - someone was just starting to clean it up at 10 a.m. - I mean there was a lot of dirt and debris from these two parties -  and this was well after it was over and people are coming and goingThe restaurant was a Spanish Restaurant with a limited menu - I did not see anyone eathing in there at any meal times - after two days I checked out and went to the real Best Western and I would encourage anyone considering staying at this hotel to do the same before they actually check in - because the Best West Inn certainly was far from the BestMore</t>
   </si>
   <si>
-    <t>Steve H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r10149450-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>10149450</t>
+  </si>
+  <si>
+    <t>10/19/2007</t>
+  </si>
+  <si>
+    <t>Ramada Inn Camp Wisdom road Duncanville Tx.</t>
+  </si>
+  <si>
+    <t>Called property direct to book reservation . Desk clerk unhelpful .  Called reservations and booked room , gave cc no and instructions that all cgs billed to my card .  My daughter arrived , no reservation and would not accept my AMEX black card for cgs.  Customer service advised that all properties were independently owned and they could not help.  I would rather sleep at the YMCA than give these people another dime ! I sent my daughter to the Hilton a few blocks away .  Paid more but was worth it !  If you're going to duncanville stay away from this place !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r10056482-Quality_Inn-Duncanville_Texas.html</t>
+  </si>
+  <si>
+    <t>10056482</t>
+  </si>
+  <si>
+    <t>10/08/2007</t>
+  </si>
+  <si>
+    <t>If you love bugs, stay here!</t>
+  </si>
+  <si>
+    <t>I travel out of town 8 nights a month, I usually spend two nights in Duncanville, TX. I usually stay at the Hilton Garden Inn although it is pricey, it is well worth it. But this past week it was sold out for a church convention.
+I checked in at 8 pm after a 5 hour drive to this Ramada hotel. The lady working the front desk tells me they oversold their king bedrooms and that I can have a two bed room for the night then come back after 1 pm the next day and they could switch me to a king room. I told her no, its fine, I will take the two twin bed room and I didnt complain or start a fight, all I wanted was to go to sleep. 
+After entering my room, I noticed it smelt like mold, and B.O. so I walked straight to the A/C unit and turned it on full blast, when from the bathroom my fiancee was screaming! I ran into the bathroom to see what had happened and there were insects everywhere. We counted 12 black crickets and 4 roaches. I am being dead serious guys. So I immediately stormed back to the front desk and told the lady that our room is invested with bugs and she notified me that its cricket season (didn't know crickets had a season?) in Texas and that since they are doing construction...I travel out of town 8 nights a month, I usually spend two nights in Duncanville, TX. I usually stay at the Hilton Garden Inn although it is pricey, it is well worth it. But this past week it was sold out for a church convention.I checked in at 8 pm after a 5 hour drive to this Ramada hotel. The lady working the front desk tells me they oversold their king bedrooms and that I can have a two bed room for the night then come back after 1 pm the next day and they could switch me to a king room. I told her no, its fine, I will take the two twin bed room and I didnt complain or start a fight, all I wanted was to go to sleep. After entering my room, I noticed it smelt like mold, and B.O. so I walked straight to the A/C unit and turned it on full blast, when from the bathroom my fiancee was screaming! I ran into the bathroom to see what had happened and there were insects everywhere. We counted 12 black crickets and 4 roaches. I am being dead serious guys. So I immediately stormed back to the front desk and told the lady that our room is invested with bugs and she notified me that its cricket season (didn't know crickets had a season?) in Texas and that since they are doing construction to the hotel that the crickets are getting inside via the construction. So I asked the lady for a new room and she moved us 4 rooms down the hall. When we entered the room we counted 3 crickets in the bathroom and 4 in the room. Not to mention it smelled like B.O. and mold again. I called down to the front desk and the lady told me theres nothing they can do and I asked for a refund and she told me they dont do refunds. So, me and my fiancee killed off the bugs the best we could and went to sleep. Keep in mind, we aren't from the city we live in the country but we still dont like bugs where we sleep. I did enough sleeping with the bugs in the Army. When we go camping, we expect bugs, but when your paying 75 dollars a night for  a hotel room, you expect to have at least a bug free room. I will never stay here again, I will try the motel 6 down the street before this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>I travel out of town 8 nights a month, I usually spend two nights in Duncanville, TX. I usually stay at the Hilton Garden Inn although it is pricey, it is well worth it. But this past week it was sold out for a church convention.
+I checked in at 8 pm after a 5 hour drive to this Ramada hotel. The lady working the front desk tells me they oversold their king bedrooms and that I can have a two bed room for the night then come back after 1 pm the next day and they could switch me to a king room. I told her no, its fine, I will take the two twin bed room and I didnt complain or start a fight, all I wanted was to go to sleep. 
+After entering my room, I noticed it smelt like mold, and B.O. so I walked straight to the A/C unit and turned it on full blast, when from the bathroom my fiancee was screaming! I ran into the bathroom to see what had happened and there were insects everywhere. We counted 12 black crickets and 4 roaches. I am being dead serious guys. So I immediately stormed back to the front desk and told the lady that our room is invested with bugs and she notified me that its cricket season (didn't know crickets had a season?) in Texas and that since they are doing construction...I travel out of town 8 nights a month, I usually spend two nights in Duncanville, TX. I usually stay at the Hilton Garden Inn although it is pricey, it is well worth it. But this past week it was sold out for a church convention.I checked in at 8 pm after a 5 hour drive to this Ramada hotel. The lady working the front desk tells me they oversold their king bedrooms and that I can have a two bed room for the night then come back after 1 pm the next day and they could switch me to a king room. I told her no, its fine, I will take the two twin bed room and I didnt complain or start a fight, all I wanted was to go to sleep. After entering my room, I noticed it smelt like mold, and B.O. so I walked straight to the A/C unit and turned it on full blast, when from the bathroom my fiancee was screaming! I ran into the bathroom to see what had happened and there were insects everywhere. We counted 12 black crickets and 4 roaches. I am being dead serious guys. So I immediately stormed back to the front desk and told the lady that our room is invested with bugs and she notified me that its cricket season (didn't know crickets had a season?) in Texas and that since they are doing construction to the hotel that the crickets are getting inside via the construction. So I asked the lady for a new room and she moved us 4 rooms down the hall. When we entered the room we counted 3 crickets in the bathroom and 4 in the room. Not to mention it smelled like B.O. and mold again. I called down to the front desk and the lady told me theres nothing they can do and I asked for a refund and she told me they dont do refunds. So, me and my fiancee killed off the bugs the best we could and went to sleep. Keep in mind, we aren't from the city we live in the country but we still dont like bugs where we sleep. I did enough sleeping with the bugs in the Army. When we go camping, we expect bugs, but when your paying 75 dollars a night for  a hotel room, you expect to have at least a bug free room. I will never stay here again, I will try the motel 6 down the street before this place!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r8240593-Quality_Inn-Duncanville_Texas.html</t>
@@ -609,9 +831,6 @@
     <t>July 2007</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>After a delayed arrival into DFW, drove to Duncanville, arriving at the Ramada on Camp Wisdom about 2 a.m. on a Sunday morning.
 The surly desk clerk seemed to none too pleased to see me but after some difficulty managed to get me a room key.
 The room, a "poolside" room had an overpowerind odor of mildew and, in fact, the walls and floors were covered with mold.  The airconditioner from the room above was spewing humidity runoff into this room and the floor -- and carpet -- were sopping wet.
@@ -621,9 +840,6 @@
 Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and...After a delayed arrival into DFW, drove to Duncanville, arriving at the Ramada on Camp Wisdom about 2 a.m. on a Sunday morning.The surly desk clerk seemed to none too pleased to see me but after some difficulty managed to get me a room key.The room, a "poolside" room had an overpowerind odor of mildew and, in fact, the walls and floors were covered with mold.  The airconditioner from the room above was spewing humidity runoff into this room and the floor -- and carpet -- were sopping wet.When I dragged my luggage and myself back to the front desk to ask for a habitable room, the now surlier desk clerk informed me that this was an older property, all rooms were like the one she had assigned me and that , if I wanted a nice room, I should "go to the Hilton."She actually refused to even consider changing my room assignment until I made it clear I was not going back to the moldy one.After some back and forth, I managed to get her to give me a different room on the second floor.  This one did not smell of mold and was not flooded, but I did notice a number of bugs go running when I turned the lights on.Managed to spend about four hours in this hideous dump and checked out around 8 a.m..  Took the night clerks advice and checked into the nearby and brand new Hilton, which was fabulous!Not sure what hotel my fellow raters were evaluating but doesn't seem possible it is this one!More</t>
   </si>
   <si>
-    <t>sstraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r6534821-Quality_Inn-Duncanville_Texas.html</t>
   </si>
   <si>
@@ -643,9 +859,6 @@
   </si>
   <si>
     <t>My wife and I just returned from New Years weekend in Texas. We stayed at the Ramada and were quite pleased with the place. The front desk clerk was friendly and helpful at both check in and check out. The room was large and clean, ours had one king bed and a small sofa and a small refrigerator, but no microwave. Everything in the room worked including the free wireless internet access! Our particular room was on an outside wall, lower level, so we had two entrance doors, one to the parking area and one to the interior hallway. Nothing like being able to park right outside your room! It is not a new motel, so things were a bit dated, but like I said, it was all clean and working. I paid $40/ night from Priceline, that made it even nicer!I would stay here again if in the area.More</t>
-  </si>
-  <si>
-    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55771-d1603881-r5035388-Quality_Inn-Duncanville_Texas.html</t>
@@ -1168,47 +1381,43 @@
       <c r="A2" t="n">
         <v>1054</v>
       </c>
-      <c r="B2" t="n">
-        <v>174253</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1222,66 +1431,60 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1054</v>
       </c>
-      <c r="B3" t="n">
-        <v>29854</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="n">
         <v>3</v>
       </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1289,64 +1492,60 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1054</v>
       </c>
-      <c r="B4" t="n">
-        <v>174254</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1354,54 +1553,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1054</v>
       </c>
-      <c r="B5" t="n">
-        <v>174255</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1415,186 +1610,184 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1054</v>
       </c>
-      <c r="B6" t="n">
-        <v>29467</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1054</v>
       </c>
-      <c r="B7" t="n">
-        <v>174256</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1054</v>
       </c>
-      <c r="B8" t="n">
-        <v>174257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1602,54 +1795,50 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1054</v>
       </c>
-      <c r="B9" t="n">
-        <v>174258</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1663,54 +1852,50 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1054</v>
       </c>
-      <c r="B10" t="n">
-        <v>9088</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1724,328 +1909,302 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1054</v>
       </c>
-      <c r="B11" t="n">
-        <v>55942</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1054</v>
       </c>
-      <c r="B12" t="n">
-        <v>33163</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1054</v>
       </c>
-      <c r="B13" t="n">
-        <v>174259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1054</v>
       </c>
-      <c r="B14" t="n">
-        <v>106539</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X14" t="s">
+        <v>130</v>
+      </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1054</v>
       </c>
-      <c r="B15" t="n">
-        <v>709</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2053,54 +2212,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1054</v>
       </c>
-      <c r="B16" t="n">
-        <v>40443</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2114,258 +2269,232 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1054</v>
       </c>
-      <c r="B17" t="n">
-        <v>174260</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1054</v>
       </c>
-      <c r="B18" t="n">
-        <v>174261</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1054</v>
       </c>
-      <c r="B19" t="n">
-        <v>174262</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>163</v>
+      </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1054</v>
       </c>
-      <c r="B20" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>191</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -2380,70 +2509,62 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1054</v>
       </c>
-      <c r="B21" t="n">
-        <v>174263</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
         <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2451,70 +2572,983 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1054</v>
       </c>
-      <c r="B22" t="n">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+      <c r="N22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>108</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
         <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" t="s">
+        <v>252</v>
+      </c>
+      <c r="K34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L34" t="s">
+        <v>254</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>255</v>
+      </c>
+      <c r="O34" t="s">
+        <v>116</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>163</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
